--- a/src/main/resources/Student1.xlsx
+++ b/src/main/resources/Student1.xlsx
@@ -223,7 +223,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
